--- a/my-app/regionseng/11/construction/eqspluataciashi migebuli obieqtebi.xlsx
+++ b/my-app/regionseng/11/construction/eqspluataciashi migebuli obieqtebi.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13170" windowHeight="10515"/>
   </bookViews>
   <sheets>
-    <sheet name="Mtskheta-Mtianeti" sheetId="1" r:id="rId1"/>
+    <sheet name="C. Tbilisi" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -46,7 +46,7 @@
     </r>
   </si>
   <si>
-    <t>Completed construction objects in Mtskheta-Mtianeti</t>
+    <t>Completed construction objects in C. Tbilisi Municipality</t>
   </si>
 </sst>
 </file>
@@ -161,6 +161,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -189,9 +192,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,49 +481,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="5" customWidth="1"/>
-    <col min="2" max="14" width="9.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="6" customWidth="1"/>
+    <col min="2" max="14" width="10.7109375" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:14" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="3">
         <v>2010</v>
       </c>
@@ -565,114 +565,114 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="16">
-        <v>93</v>
-      </c>
-      <c r="C4" s="16">
-        <v>82</v>
-      </c>
-      <c r="D4" s="16">
-        <v>118</v>
-      </c>
-      <c r="E4" s="16">
-        <v>148</v>
-      </c>
-      <c r="F4" s="16">
-        <v>122</v>
-      </c>
-      <c r="G4" s="16">
-        <v>141</v>
-      </c>
-      <c r="H4" s="16">
-        <v>181</v>
-      </c>
-      <c r="I4" s="16">
-        <v>171</v>
-      </c>
-      <c r="J4" s="16">
-        <v>221</v>
-      </c>
-      <c r="K4" s="16">
-        <v>203</v>
-      </c>
-      <c r="L4" s="16">
-        <v>200</v>
-      </c>
-      <c r="M4" s="16">
-        <v>274</v>
-      </c>
-      <c r="N4" s="16">
-        <v>314</v>
+      <c r="B4" s="5">
+        <v>202</v>
+      </c>
+      <c r="C4" s="5">
+        <v>336</v>
+      </c>
+      <c r="D4" s="5">
+        <v>493</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1431</v>
+      </c>
+      <c r="F4" s="5">
+        <v>937</v>
+      </c>
+      <c r="G4" s="5">
+        <v>646</v>
+      </c>
+      <c r="H4" s="5">
+        <v>933</v>
+      </c>
+      <c r="I4" s="5">
+        <v>860</v>
+      </c>
+      <c r="J4" s="5">
+        <v>744</v>
+      </c>
+      <c r="K4" s="5">
+        <v>870</v>
+      </c>
+      <c r="L4" s="5">
+        <v>593</v>
+      </c>
+      <c r="M4" s="5">
+        <v>692</v>
+      </c>
+      <c r="N4" s="5">
+        <v>972</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="14">
-        <v>30577</v>
-      </c>
-      <c r="C5" s="14">
-        <v>34996</v>
-      </c>
-      <c r="D5" s="14">
-        <v>31867</v>
-      </c>
-      <c r="E5" s="14">
-        <v>50726</v>
-      </c>
-      <c r="F5" s="14">
-        <v>37045</v>
-      </c>
-      <c r="G5" s="14">
-        <v>42480</v>
-      </c>
-      <c r="H5" s="14">
-        <v>70949</v>
-      </c>
-      <c r="I5" s="14">
-        <v>52139</v>
-      </c>
-      <c r="J5" s="14">
-        <v>80825</v>
-      </c>
-      <c r="K5" s="14">
-        <v>63163</v>
-      </c>
-      <c r="L5" s="14">
-        <v>109748</v>
-      </c>
-      <c r="M5" s="14">
-        <v>77719</v>
-      </c>
-      <c r="N5" s="14">
-        <v>95564</v>
+      <c r="B5" s="15">
+        <v>334684</v>
+      </c>
+      <c r="C5" s="15">
+        <v>425669</v>
+      </c>
+      <c r="D5" s="15">
+        <v>821126</v>
+      </c>
+      <c r="E5" s="15">
+        <v>1588300</v>
+      </c>
+      <c r="F5" s="15">
+        <v>1236585</v>
+      </c>
+      <c r="G5" s="15">
+        <v>910568</v>
+      </c>
+      <c r="H5" s="15">
+        <v>1551742</v>
+      </c>
+      <c r="I5" s="15">
+        <v>1338288</v>
+      </c>
+      <c r="J5" s="15">
+        <v>1229317</v>
+      </c>
+      <c r="K5" s="15">
+        <v>1530113</v>
+      </c>
+      <c r="L5" s="15">
+        <v>777383</v>
+      </c>
+      <c r="M5" s="15">
+        <v>820923</v>
+      </c>
+      <c r="N5" s="15">
+        <v>1871502</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E15" s="6"/>
+      <c r="E15" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
